--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3FD4D-F992-4D08-B888-1D03DAE8175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA05047-232B-4EDB-A82D-4D1B5C1CBFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Dimensiuni</t>
   </si>
   <si>
-    <t>Observatii</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
@@ -60,14 +57,17 @@
     <t>assets/model2.glb</t>
   </si>
   <si>
-    <t>Bucati/Mp</t>
+    <t xml:space="preserve">Observații </t>
+  </si>
+  <si>
+    <t>Bucați/Mp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,6 +121,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,13 +408,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="14.90625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.453125" customWidth="1"/>
@@ -412,56 +422,56 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
@@ -480,5 +490,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF281AA7-4532-4816-8EE6-CA61BAC0B1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5104A3E-9598-4493-A195-1C590831A4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Poza</t>
   </si>
@@ -57,9 +57,6 @@
     <t>assets/model2.glb</t>
   </si>
   <si>
-    <t>Bucați/Mp</t>
-  </si>
-  <si>
     <t>Observații</t>
   </si>
   <si>
@@ -94,6 +91,108 @@
   </si>
   <si>
     <t>assets/model7.glb</t>
+  </si>
+  <si>
+    <t>assets/image8.jpg</t>
+  </si>
+  <si>
+    <t>assets/model8.glb</t>
+  </si>
+  <si>
+    <t>Cantitati</t>
+  </si>
+  <si>
+    <t>assets/image9.jpg</t>
+  </si>
+  <si>
+    <t>10.57 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 x 700 mm </t>
+  </si>
+  <si>
+    <t>assets/model9.glb</t>
+  </si>
+  <si>
+    <t>Coloana de vopsit in 3 culori</t>
+  </si>
+  <si>
+    <t>assets/model10.glb</t>
+  </si>
+  <si>
+    <t>De vopsit brau GRI in clase</t>
+  </si>
+  <si>
+    <t>178.9 m²</t>
+  </si>
+  <si>
+    <t>assets/image10.jpg</t>
+  </si>
+  <si>
+    <t>88.19 m²</t>
+  </si>
+  <si>
+    <t>assets/model11.glb</t>
+  </si>
+  <si>
+    <t>assets/image11.jpg</t>
+  </si>
+  <si>
+    <t>Negativul de la Hol</t>
+  </si>
+  <si>
+    <t>assets/image12.jpg</t>
+  </si>
+  <si>
+    <t>De vopsit in 2 culori tip tabla de sah pe hol</t>
+  </si>
+  <si>
+    <t>assets/image13.jpg</t>
+  </si>
+  <si>
+    <t>De vopsit brau GRI dunga colorata pe hol</t>
+  </si>
+  <si>
+    <t>107.92 m²</t>
+  </si>
+  <si>
+    <t>assets/image14.jpg</t>
+  </si>
+  <si>
+    <t>2230x1840</t>
+  </si>
+  <si>
+    <t>Trafoare Tavan chimie din Forex vopsit</t>
+  </si>
+  <si>
+    <t>assets/model14.glb</t>
+  </si>
+  <si>
+    <t>996 m²</t>
+  </si>
+  <si>
+    <t>assets/image15.jpg</t>
+  </si>
+  <si>
+    <t>Tartan pe cele 2 terase plus curtea scolii</t>
+  </si>
+  <si>
+    <t>assets/model15.glb</t>
+  </si>
+  <si>
+    <t>assets/image16.jpg</t>
+  </si>
+  <si>
+    <t>Foto tapet / autocolant pentru pereti</t>
+  </si>
+  <si>
+    <t>17.28 m²</t>
+  </si>
+  <si>
+    <t>assets/model12.glb</t>
+  </si>
+  <si>
+    <t>Cod_Culoare</t>
   </si>
 </sst>
 </file>
@@ -148,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,6 +258,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,13 +556,13 @@
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="18.81640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="3"/>
+    <col min="4" max="5" width="18.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -466,16 +571,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -486,14 +594,15 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -504,17 +613,18 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -522,17 +632,18 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4"/>
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -540,33 +651,35 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4"/>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4"/>
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -574,16 +687,17 @@
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4"/>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -591,24 +705,175 @@
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C63CC19-817F-4EC7-8BF2-4B9B9AE83D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EF7C2E-0701-4175-AAA8-F7C991E78C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
     <t>assets/model16.glb</t>
   </si>
   <si>
-    <t>Cantitați</t>
+    <t>Cantități</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EF7C2E-0701-4175-AAA8-F7C991E78C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8EE130-CC46-4FF9-ADAF-6B80D289529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Poza</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Cantități</t>
+  </si>
+  <si>
+    <t>59.6 m²</t>
+  </si>
+  <si>
+    <t>36 m²             5.40m²  linia</t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,8 +787,8 @@
         <v>40</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
@@ -818,7 +824,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D96734-D555-4F68-BF72-0AE8A5812721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57D59E0-A45B-417B-B2F2-545AADA7DE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1680" windowWidth="19200" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>Poza</t>
   </si>
@@ -126,9 +126,6 @@
     <t>assets/image10.jpg</t>
   </si>
   <si>
-    <t>88.19 m²</t>
-  </si>
-  <si>
     <t>assets/model11.glb</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>De vopsit brau GRI dunga colorata pe hol</t>
   </si>
   <si>
-    <t>107.92 m²</t>
-  </si>
-  <si>
     <t>assets/image14.jpg</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>59.6 m²</t>
   </si>
   <si>
-    <t>36 m²             5.40m²  linia</t>
-  </si>
-  <si>
     <t xml:space="preserve">3500x1000 cm </t>
   </si>
   <si>
@@ -214,13 +205,79 @@
   </si>
   <si>
     <t>assets/image17.jpg</t>
+  </si>
+  <si>
+    <t>RAL 1003         Signal Yellow</t>
+  </si>
+  <si>
+    <t>RAL 5012              Ligt Blue</t>
+  </si>
+  <si>
+    <t>60 m²</t>
+  </si>
+  <si>
+    <t>RAL 1003 Signal Yellow</t>
+  </si>
+  <si>
+    <t>Placare cu pluta pentru expozitie</t>
+  </si>
+  <si>
+    <t>15.5 m²</t>
+  </si>
+  <si>
+    <t>assets/image18.jpg</t>
+  </si>
+  <si>
+    <t>assets/model18.glb</t>
+  </si>
+  <si>
+    <t>Toaleta fete Roz perete</t>
+  </si>
+  <si>
+    <t>Toaleta fete Roz PODEA</t>
+  </si>
+  <si>
+    <t>2 m²</t>
+  </si>
+  <si>
+    <t>5 m²</t>
+  </si>
+  <si>
+    <t>assets/image19.jpg</t>
+  </si>
+  <si>
+    <t>assets/model19.glb</t>
+  </si>
+  <si>
+    <t>Toaleta baieti albastru perete</t>
+  </si>
+  <si>
+    <t>Toaleta baieti albastru PODEA</t>
+  </si>
+  <si>
+    <t>assets/model20.glb</t>
+  </si>
+  <si>
+    <t>assets/image20.jpg</t>
+  </si>
+  <si>
+    <t>Diferite modele</t>
+  </si>
+  <si>
+    <t>Litere volumetrice</t>
+  </si>
+  <si>
+    <t>170 m²</t>
+  </si>
+  <si>
+    <t>54 m²                8.5 m²  linia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +304,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,11 +343,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,7 +637,7 @@
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="18.81640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="18.1796875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.90625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.453125" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="3"/>
@@ -595,10 +655,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -615,7 +675,9 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
@@ -634,7 +696,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="2">
         <v>4</v>
       </c>
@@ -653,7 +717,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
@@ -672,7 +738,9 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
@@ -690,7 +758,9 @@
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F6" s="2">
         <v>2</v>
       </c>
@@ -708,7 +778,9 @@
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
@@ -726,7 +798,9 @@
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -736,20 +810,22 @@
     </row>
     <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -762,7 +838,9 @@
       <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
@@ -780,7 +858,9 @@
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
@@ -790,17 +870,19 @@
     </row>
     <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
@@ -808,25 +890,25 @@
     </row>
     <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
@@ -836,7 +918,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
@@ -844,77 +926,166 @@
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="F15" s="2">
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F21" s="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71BA723-A469-41ED-9DC6-702C8F2D0ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE88750B-5B9D-4706-B89A-584C44BF6450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>Poza</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>19 m²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla perforata vopsita electrostatic. De la 1 la 4 </t>
   </si>
 </sst>
 </file>
@@ -691,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>60</v>
@@ -1199,6 +1202,9 @@
       <c r="F25" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
@@ -1216,6 +1222,9 @@
       <c r="F26" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
@@ -1232,6 +1241,9 @@
       </c>
       <c r="F27" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE88750B-5B9D-4706-B89A-584C44BF6450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A075C7A-776C-4EC5-BDA9-2217190D92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>Poza</t>
   </si>
@@ -99,9 +99,6 @@
     <t>assets/model8.glb</t>
   </si>
   <si>
-    <t>assets/image9.jpg</t>
-  </si>
-  <si>
     <t>10.57 m²</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>De vopsit brau GRI in clase</t>
   </si>
   <si>
-    <t>178.9 m²</t>
-  </si>
-  <si>
     <t>assets/image10.jpg</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
     <t>Litere volumetrice</t>
   </si>
   <si>
-    <t>170 m²</t>
-  </si>
-  <si>
     <t>54 m²                8.5 m²  linia</t>
   </si>
   <si>
@@ -336,7 +327,13 @@
     <t>19 m²</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabla perforata vopsita electrostatic. De la 1 la 4 </t>
+    <t>suprafata peretilor     170 m²</t>
+  </si>
+  <si>
+    <t>suprafata peretilor        178.9 m²</t>
+  </si>
+  <si>
+    <t>Tabla perforata vopsita electrostatic. De la 1 la 4</t>
   </si>
 </sst>
 </file>
@@ -694,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,10 +718,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -739,10 +736,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -760,10 +757,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -784,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -805,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -825,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -845,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -865,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -876,22 +873,22 @@
     </row>
     <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -905,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -916,351 +913,351 @@
     </row>
     <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="2">
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A075C7A-776C-4EC5-BDA9-2217190D92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9CB9F2-9A3F-4668-A48B-0D37541EC5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>Poza</t>
   </si>
@@ -273,9 +273,6 @@
     <t>RAL 1003 Signal Yellow/ NCS  S 2002-y</t>
   </si>
   <si>
-    <t>NCS S 2050- B08G /  NCS S 3040-B20G</t>
-  </si>
-  <si>
     <t>RAL 5012  Ligt Blue/ RAL 1003  Signal Yellow</t>
   </si>
   <si>
@@ -334,6 +331,12 @@
   </si>
   <si>
     <t>Tabla perforata vopsita electrostatic. De la 1 la 4</t>
+  </si>
+  <si>
+    <t>NCS S 2050- B80G /  NCS S 3040-B20G</t>
+  </si>
+  <si>
+    <t>assets/image9.jpg</t>
   </si>
 </sst>
 </file>
@@ -691,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,7 +760,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>58</v>
@@ -913,7 +916,7 @@
     </row>
     <row r="11" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -922,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
@@ -936,7 +939,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>37</v>
@@ -962,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>60</v>
@@ -976,7 +979,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -1168,13 +1171,13 @@
     </row>
     <row r="24" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>59</v>
@@ -1185,19 +1188,19 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>56</v>
@@ -1205,19 +1208,19 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>56</v>
@@ -1225,19 +1228,19 @@
     </row>
     <row r="27" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>56</v>
@@ -1245,19 +1248,19 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Creen\Desktop\genesis-tower\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9CB9F2-9A3F-4668-A48B-0D37541EC5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C229FD68-DE91-4DAD-BD7F-7E2DFBEF251E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,7 +336,7 @@
     <t>NCS S 2050- B80G /  NCS S 3040-B20G</t>
   </si>
   <si>
-    <t>assets/image9.jpg</t>
+    <t>assets/image30.jpg</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
